--- a/Tables/Supplementary Table 1.xlsx
+++ b/Tables/Supplementary Table 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B74CD13-2AF0-0D42-BB85-BB9679D7BC62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC5055A-D848-6245-8028-DB35A61DF69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16320" xr2:uid="{2E492271-1E73-014C-BB42-9CE5E2D7CAC9}"/>
+    <workbookView xWindow="380" yWindow="2400" windowWidth="28240" windowHeight="16160" xr2:uid="{2E2B2151-57B4-9942-A0AA-2C60898EA5D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nucleotide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amino acid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266-21555</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,131 +43,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C3267T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1001I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5388A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1708D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T6954C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2230T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11288-11296 deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGF 3675-3677 deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21765-21770 deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HV 69-70 deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21991-21993 deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y144 deletion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A23063T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N501Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C23271A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A570D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C23604A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P681H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C23709T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T716I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T24506G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S982A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G24914C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1118H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orf8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C27972T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q27stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G28048T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R52I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A28111G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y73C</t>
+    <t xml:space="preserve"> S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21563-25384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25393-26220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORF3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26523-27191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORF6</t>
+  </si>
+  <si>
+    <t>ORF7a</t>
+  </si>
+  <si>
+    <t>ORF7b</t>
+  </si>
+  <si>
+    <t>ORF8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,23 +84,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28280 GAT-&gt;CTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C28977T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S235F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.1.1.7 lineage mutations</t>
+    <t>ORF10</t>
+  </si>
+  <si>
+    <t>27202-27387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27394-27759</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27756-27887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27894-29533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28274-29533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29558-29674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26245-26472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181-818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>819-2763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2764-3263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3264-3569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3570-3859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3860-3942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3943-4140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4144-4253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4254-4392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4393-4405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4406-5324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5325-5925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5926-6452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6453-6798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6799-7096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsp3</t>
+  </si>
+  <si>
+    <t>nsp4</t>
+  </si>
+  <si>
+    <t>nsp5</t>
+  </si>
+  <si>
+    <t>nsp6</t>
+  </si>
+  <si>
+    <t>nsp7</t>
+  </si>
+  <si>
+    <t>nsp8</t>
+  </si>
+  <si>
+    <t>nsp9</t>
+  </si>
+  <si>
+    <t>nsp10</t>
+  </si>
+  <si>
+    <t>nsp11</t>
+  </si>
+  <si>
+    <t>nsp12</t>
+  </si>
+  <si>
+    <t>nsp13</t>
+  </si>
+  <si>
+    <t>nsp14</t>
+  </si>
+  <si>
+    <t>nsp15</t>
+  </si>
+  <si>
+    <t>nsp16</t>
+  </si>
+  <si>
+    <t>non-structural proteins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuctural proteins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sars-Cov-2 GENOME(position reference NC_045512)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,12 +271,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,13 +303,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,188 +625,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC6C176-4DF3-4F41-ABD3-24B486565011}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6482C9F-DB2B-BA43-83F5-1E882F4BC7DC}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1">
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
